--- a/datas/CASES.xlsx
+++ b/datas/CASES.xlsx
@@ -8,21 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lhuc02658\LemonAPITest\datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACCC2B94-926A-4959-8A8B-415104A4D478}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DD878FE-487A-4D63-B454-D94E2C166A72}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26115" yWindow="4065" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="register1" sheetId="1" r:id="rId1"/>
     <sheet name="test" sheetId="2" r:id="rId2"/>
     <sheet name="register" sheetId="3" r:id="rId3"/>
+    <sheet name="login" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="76">
   <si>
     <t>case_id</t>
   </si>
@@ -126,6 +127,190 @@
   <si>
     <t>注册成功-昵称长度10位</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册失败-昵称多于10位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"mobile_phone":"{not_existed_tel}","pwd":"12345678","type":1,"reg_name":"lemon123456"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"mobile_phone":"1882222333","pwd":"12345678"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册失败-手机号为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"mobile_phone":null,"pwd":"12345678"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册失败-密码为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"mobile_phone":"{not_existed_tel}","pwd":null}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册失败-密码少于8位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"mobile_phone":"{not_existed_tel}","pwd":"1234567"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册失败-密码多于16位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"mobile_phone":"{not_existed_tel}","pwd":"12345678123456789"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册失败-已存在手机号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册失败-手机号少于11位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"mobile_phone":"188222233333","pwd":"12345678"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册失败-手机号多于11位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>case_id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>title</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>url</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>data</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>method</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>expected</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>actual</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>result</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录成功</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>/member/login</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录失败-手机号为空</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录失败-手机号未注册</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"mobile_phone":"{not_existed_tel}","pwd":"12345678"}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录失败-手机号小于11位</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"mobile_phone":"{invest_uesr_tel}","pwd":"{invest_user_pwd}"}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"mobile_phone":"","pwd":"{invest_user_pwd}"}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"mobile_phone":"1569999777","pwd":"{invest_user_pwd}"}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录失败-手机号大于11位</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"mobile_phone":"156999977788","pwd":"{invest_user_pwd}"}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录失败-密码为空</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"mobile_phone":"{invest_uesr_tel}","pwd":""}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"mobile_phone":"{invest_uesr_tel}","pwd":"a123321b"}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录失败-密码错误</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"mobile_phone":"{invest_uesr_tel}","pwd":"12345678"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"code":0,"msg":OK}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"code":1,"msg":"手机号为空"}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"code":2,"msg":"手机号未注册"}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"code":2,"msg":"手机号要为11位"}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"code":2,"msg":"密码错误"}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"code":1,"msg":"密码不能为空"}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -636,15 +821,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C58CC045-5DFD-4606-8108-84D24B370066}">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="21.75" customWidth="1"/>
+    <col min="2" max="2" width="27" customWidth="1"/>
     <col min="3" max="3" width="26.125" customWidth="1"/>
     <col min="4" max="4" width="90.875" customWidth="1"/>
   </cols>
@@ -719,56 +904,160 @@
       <c r="A4">
         <v>3</v>
       </c>
+      <c r="B4" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="C4" s="2" t="s">
         <v>19</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
+      <c r="B5" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="C5" s="2" t="s">
         <v>19</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
       </c>
+      <c r="B6" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="C6" s="2" t="s">
         <v>19</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
+      <c r="B7" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="C7" s="2" t="s">
         <v>19</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>7</v>
       </c>
+      <c r="B8" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="C8" s="2" t="s">
         <v>19</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>8</v>
       </c>
+      <c r="B9" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="C9" s="2" t="s">
         <v>19</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>9</v>
       </c>
+      <c r="B10" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="C10" s="2" t="s">
         <v>19</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -776,4 +1065,208 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF51B3F9-659B-49DD-A02A-C151592974BC}">
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="22.375" customWidth="1"/>
+    <col min="3" max="3" width="25.5" customWidth="1"/>
+    <col min="4" max="4" width="68.375" customWidth="1"/>
+    <col min="5" max="5" width="21.75" customWidth="1"/>
+    <col min="6" max="6" width="35.875" customWidth="1"/>
+    <col min="7" max="7" width="21.625" customWidth="1"/>
+    <col min="8" max="8" width="27.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C9" s="2"/>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C10" s="2"/>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C11" s="2"/>
+      <c r="E11" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/datas/CASES.xlsx
+++ b/datas/CASES.xlsx
@@ -5,18 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lhuc02658\LemonAPITest\datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lhuc02658\LemonAPITest1\datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DD878FE-487A-4D63-B454-D94E2C166A72}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25CC3D01-9C12-4C82-AF1E-F2DD87E7078B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="register1" sheetId="1" r:id="rId1"/>
     <sheet name="test" sheetId="2" r:id="rId2"/>
     <sheet name="register" sheetId="3" r:id="rId3"/>
     <sheet name="login" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -1269,4 +1270,18 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7117F05-E364-4553-A220-531C13F0301F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>